--- a/website/vue3_typescript.xlsx
+++ b/website/vue3_typescript.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
     <sheet name="报错" sheetId="4" r:id="rId2"/>
+    <sheet name="nextjs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>TypeScript菜鸟教程</t>
   </si>
@@ -148,6 +149,37 @@
     <t>https://varlet.gitee.io/varlet-ui/#/zh-CN/home</t>
   </si>
   <si>
+    <t>JavaScript中文网</t>
+  </si>
+  <si>
+    <t>https://www.javascriptcn.com/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">我爱学习
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各种办公技术</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.5axxw.com/</t>
+  </si>
+  <si>
+    <t>ChatGPT解答</t>
+  </si>
+  <si>
+    <t>https://chat.ktoai.com/#/</t>
+  </si>
+  <si>
     <t>sourceType: 'module'</t>
   </si>
   <si>
@@ -164,6 +196,33 @@
   </si>
   <si>
     <t>https://blog.csdn.net/wz_coming/article/details/116917860</t>
+  </si>
+  <si>
+    <t>nextjs</t>
+  </si>
+  <si>
+    <t>一款轻量级的应用框架</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>使用后端渲染</t>
+  </si>
+  <si>
+    <t>自动进行代码分割（code splitting），以获得更快的网页加载速度</t>
+  </si>
+  <si>
+    <t>简洁的前端路由实现</t>
+  </si>
+  <si>
+    <t>使用webpack进行构建，支持模块热更新（Hot Module Replacement）</t>
+  </si>
+  <si>
+    <t>可与主流Node服务器进行对接（如express）</t>
+  </si>
+  <si>
+    <t>可自定义babel和webpack的配置</t>
   </si>
 </sst>
 </file>
@@ -792,7 +851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,6 +875,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1167,8 +1232,8 @@
   <sheetPr/>
   <dimension ref="A2:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1311,14 +1376,29 @@
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="4"/>
+    <row r="25" spans="1:2">
+      <c r="A25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:2">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1341,6 +1421,9 @@
     <hyperlink ref="B23" r:id="rId12" display="https://varlet.gitee.io/varlet-ui/#/zh-CN/home"/>
     <hyperlink ref="B6" r:id="rId13" display="https://vitejs.cn/"/>
     <hyperlink ref="B11" r:id="rId14" display="https://www.zhoulujun.cn/html/webfront/ECMAScript/vue3/"/>
+    <hyperlink ref="B25" r:id="rId15" display="https://www.javascriptcn.com/"/>
+    <hyperlink ref="B27" r:id="rId16" display="https://chat.ktoai.com/#/"/>
+    <hyperlink ref="B26" r:id="rId17" display="https://www.5axxw.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1365,30 +1448,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1403,4 +1486,74 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.625" customWidth="1"/>
+    <col min="2" max="2" width="100.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>